--- a/experiments/ana-flavia-NRxSTD-NR-trim/sheets/relative-filtered_frequencies.xlsx
+++ b/experiments/ana-flavia-NRxSTD-NR-trim/sheets/relative-filtered_frequencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="299">
   <si>
     <t>total_sum</t>
   </si>
@@ -31,40 +31,40 @@
     <t>STD-NR</t>
   </si>
   <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
-  </si>
-  <si>
-    <t>210421121685</t>
-  </si>
-  <si>
-    <t>210421121686</t>
-  </si>
-  <si>
-    <t>210421121687</t>
-  </si>
-  <si>
-    <t>210421121703</t>
-  </si>
-  <si>
-    <t>210421121704</t>
-  </si>
-  <si>
-    <t>210421121705</t>
-  </si>
-  <si>
-    <t>210421121706</t>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
+  </si>
+  <si>
+    <t>S210421121685</t>
+  </si>
+  <si>
+    <t>S210421121686</t>
+  </si>
+  <si>
+    <t>S210421121687</t>
+  </si>
+  <si>
+    <t>S210421121703</t>
+  </si>
+  <si>
+    <t>S210421121704</t>
+  </si>
+  <si>
+    <t>S210421121705</t>
+  </si>
+  <si>
+    <t>S210421121706</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -580,12 +580,12 @@
     <t>Coriobacteriaceae_UCG-002</t>
   </si>
   <si>
+    <t>Papillibacter</t>
+  </si>
+  <si>
     <t>Coprobacillus</t>
   </si>
   <si>
-    <t>Papillibacter</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-006</t>
   </si>
   <si>
@@ -697,24 +697,24 @@
     <t>[Eubacterium]_brachy_group</t>
   </si>
   <si>
+    <t>Achromobacter</t>
+  </si>
+  <si>
+    <t>UCG-004</t>
+  </si>
+  <si>
+    <t>Aerococcus</t>
+  </si>
+  <si>
+    <t>UCG-007</t>
+  </si>
+  <si>
+    <t>Parvibacter</t>
+  </si>
+  <si>
     <t>Rikenella</t>
   </si>
   <si>
-    <t>UCG-004</t>
-  </si>
-  <si>
-    <t>Achromobacter</t>
-  </si>
-  <si>
-    <t>Aerococcus</t>
-  </si>
-  <si>
-    <t>UCG-007</t>
-  </si>
-  <si>
-    <t>Parvibacter</t>
-  </si>
-  <si>
     <t>Paludicola</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>Corynebacterium</t>
+  </si>
+  <si>
     <t>UCG-003</t>
   </si>
   <si>
-    <t>Corynebacterium</t>
-  </si>
-  <si>
     <t>Acinetobacter</t>
   </si>
   <si>
@@ -787,18 +787,21 @@
     <t>Lachnospiraceae_FCS020_group</t>
   </si>
   <si>
+    <t>[Eubacterium]_fissicatena_group</t>
+  </si>
+  <si>
     <t>Bacillus</t>
   </si>
   <si>
     <t>Eubacterium</t>
   </si>
   <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
     <t>Sphingomonas</t>
   </si>
   <si>
-    <t>Enterococcus</t>
-  </si>
-  <si>
     <t>DTU089</t>
   </si>
   <si>
@@ -868,10 +871,10 @@
     <t>Streptococcus_hyointestinalis</t>
   </si>
   <si>
+    <t>[Clostridium]_leptum</t>
+  </si>
+  <si>
     <t>Alistipes_timonensis</t>
-  </si>
-  <si>
-    <t>[Clostridium]_leptum</t>
   </si>
   <si>
     <t>Extibacter_muris</t>
@@ -1489,16 +1492,16 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.68696</v>
+        <v>0.68684</v>
       </c>
       <c r="C2">
-        <v>0.7883</v>
+        <v>0.78838</v>
       </c>
       <c r="D2">
-        <v>0.58155</v>
+        <v>0.58126</v>
       </c>
       <c r="E2">
-        <v>0.80685</v>
+        <v>0.80696</v>
       </c>
       <c r="F2">
         <v>0.7900700000000001</v>
@@ -1507,31 +1510,31 @@
         <v>0.8577399999999999</v>
       </c>
       <c r="H2">
-        <v>0.59893</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="I2">
         <v>0.88511</v>
       </c>
       <c r="J2">
-        <v>0.55588</v>
+        <v>0.55587</v>
       </c>
       <c r="K2">
-        <v>0.699</v>
+        <v>0.69392</v>
       </c>
       <c r="L2">
-        <v>0.1844</v>
+        <v>0.18449</v>
       </c>
       <c r="M2">
         <v>0.009469999999999999</v>
       </c>
       <c r="N2">
-        <v>0.19308</v>
+        <v>0.19314</v>
       </c>
       <c r="O2">
-        <v>0.76901</v>
+        <v>0.76892</v>
       </c>
       <c r="P2">
-        <v>0.51906</v>
+        <v>0.51898</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1539,49 +1542,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.27624</v>
+        <v>0.27637</v>
       </c>
       <c r="C3">
-        <v>0.16494</v>
+        <v>0.16491</v>
       </c>
       <c r="D3">
-        <v>0.39199</v>
+        <v>0.39228</v>
       </c>
       <c r="E3">
-        <v>0.0432</v>
+        <v>0.04322</v>
       </c>
       <c r="F3">
-        <v>0.20549</v>
+        <v>0.20548</v>
       </c>
       <c r="G3">
         <v>0.13749</v>
       </c>
       <c r="H3">
-        <v>0.38619</v>
+        <v>0.38605</v>
       </c>
       <c r="I3">
-        <v>0.10903</v>
+        <v>0.10902</v>
       </c>
       <c r="J3">
-        <v>0.42222</v>
+        <v>0.42223</v>
       </c>
       <c r="K3">
-        <v>0.29009</v>
+        <v>0.29525</v>
       </c>
       <c r="L3">
-        <v>0.78691</v>
+        <v>0.78677</v>
       </c>
       <c r="M3">
         <v>0.88923</v>
       </c>
       <c r="N3">
-        <v>0.79273</v>
+        <v>0.79266</v>
       </c>
       <c r="O3">
-        <v>0.21595</v>
+        <v>0.21602</v>
       </c>
       <c r="P3">
-        <v>0.44351</v>
+        <v>0.44353</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1598,7 +1601,7 @@
         <v>0.00267</v>
       </c>
       <c r="E4">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1616,10 +1619,10 @@
         <v>0.00791</v>
       </c>
       <c r="K4">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L4">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1639,16 +1642,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.00717</v>
+        <v>0.00715</v>
       </c>
       <c r="C5">
-        <v>0.00669</v>
+        <v>0.00665</v>
       </c>
       <c r="D5">
-        <v>0.00766</v>
+        <v>0.00767</v>
       </c>
       <c r="E5">
-        <v>0.01406</v>
+        <v>0.01389</v>
       </c>
       <c r="F5">
         <v>0.00264</v>
@@ -1657,31 +1660,31 @@
         <v>0.00467</v>
       </c>
       <c r="H5">
-        <v>0.00419</v>
+        <v>0.0042</v>
       </c>
       <c r="I5">
         <v>0.00303</v>
       </c>
       <c r="J5">
-        <v>0.00549</v>
+        <v>0.00548</v>
       </c>
       <c r="K5">
-        <v>0.00248</v>
+        <v>0.00246</v>
       </c>
       <c r="L5">
         <v>0.00422</v>
       </c>
       <c r="M5">
-        <v>0.05829</v>
+        <v>0.05836</v>
       </c>
       <c r="N5">
         <v>0.01124</v>
       </c>
       <c r="O5">
-        <v>0.00991</v>
+        <v>0.00993</v>
       </c>
       <c r="P5">
-        <v>0.00587</v>
+        <v>0.00589</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1719,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M6">
         <v>0.01579</v>
@@ -1731,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1757,7 +1760,7 @@
         <v>0.00011</v>
       </c>
       <c r="H7">
-        <v>0.009180000000000001</v>
+        <v>0.00916</v>
       </c>
       <c r="I7">
         <v>0.00236</v>
@@ -1766,13 +1769,13 @@
         <v>0.0037</v>
       </c>
       <c r="K7">
-        <v>0.00156</v>
+        <v>0.00155</v>
       </c>
       <c r="L7">
-        <v>0.00544</v>
+        <v>0.00545</v>
       </c>
       <c r="M7">
-        <v>0.02614</v>
+        <v>0.02608</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1866,7 +1869,7 @@
         <v>0.0044</v>
       </c>
       <c r="K9">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2149,16 +2152,16 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.68696</v>
+        <v>0.68684</v>
       </c>
       <c r="C2">
-        <v>0.7883</v>
+        <v>0.78838</v>
       </c>
       <c r="D2">
-        <v>0.58155</v>
+        <v>0.58126</v>
       </c>
       <c r="E2">
-        <v>0.80685</v>
+        <v>0.80696</v>
       </c>
       <c r="F2">
         <v>0.7900700000000001</v>
@@ -2167,31 +2170,31 @@
         <v>0.8577399999999999</v>
       </c>
       <c r="H2">
-        <v>0.59893</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="I2">
         <v>0.88511</v>
       </c>
       <c r="J2">
-        <v>0.55588</v>
+        <v>0.55587</v>
       </c>
       <c r="K2">
-        <v>0.699</v>
+        <v>0.69392</v>
       </c>
       <c r="L2">
-        <v>0.1844</v>
+        <v>0.18449</v>
       </c>
       <c r="M2">
         <v>0.009469999999999999</v>
       </c>
       <c r="N2">
-        <v>0.19308</v>
+        <v>0.19314</v>
       </c>
       <c r="O2">
-        <v>0.76901</v>
+        <v>0.76892</v>
       </c>
       <c r="P2">
-        <v>0.51906</v>
+        <v>0.51898</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2199,25 +2202,25 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.21016</v>
+        <v>0.2103</v>
       </c>
       <c r="C3">
-        <v>0.11555</v>
+        <v>0.11551</v>
       </c>
       <c r="D3">
-        <v>0.30855</v>
+        <v>0.30887</v>
       </c>
       <c r="E3">
-        <v>0.02759</v>
+        <v>0.0276</v>
       </c>
       <c r="F3">
-        <v>0.07811999999999999</v>
+        <v>0.0781</v>
       </c>
       <c r="G3">
         <v>0.11515</v>
       </c>
       <c r="H3">
-        <v>0.28528</v>
+        <v>0.2851</v>
       </c>
       <c r="I3">
         <v>0.06358999999999999</v>
@@ -2226,22 +2229,22 @@
         <v>0.35716</v>
       </c>
       <c r="K3">
-        <v>0.23259</v>
+        <v>0.23811</v>
       </c>
       <c r="L3">
-        <v>0.49222</v>
+        <v>0.49234</v>
       </c>
       <c r="M3">
-        <v>0.60676</v>
+        <v>0.60673</v>
       </c>
       <c r="N3">
-        <v>0.39355</v>
+        <v>0.39337</v>
       </c>
       <c r="O3">
-        <v>0.18565</v>
+        <v>0.18573</v>
       </c>
       <c r="P3">
-        <v>0.34832</v>
+        <v>0.34825</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2249,49 +2252,49 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0648</v>
+        <v>0.06479</v>
       </c>
       <c r="C4">
-        <v>0.04939</v>
+        <v>0.0494</v>
       </c>
       <c r="D4">
-        <v>0.08082</v>
+        <v>0.08079</v>
       </c>
       <c r="E4">
         <v>0.01562</v>
       </c>
       <c r="F4">
-        <v>0.12737</v>
+        <v>0.12738</v>
       </c>
       <c r="G4">
-        <v>0.02233</v>
+        <v>0.02234</v>
       </c>
       <c r="H4">
-        <v>0.10091</v>
+        <v>0.10095</v>
       </c>
       <c r="I4">
         <v>0.04544</v>
       </c>
       <c r="J4">
-        <v>0.06506000000000001</v>
+        <v>0.06507</v>
       </c>
       <c r="K4">
-        <v>0.0575</v>
+        <v>0.05714</v>
       </c>
       <c r="L4">
-        <v>0.29468</v>
+        <v>0.29443</v>
       </c>
       <c r="M4">
-        <v>0.28248</v>
+        <v>0.28249</v>
       </c>
       <c r="N4">
-        <v>0.39917</v>
+        <v>0.39929</v>
       </c>
       <c r="O4">
-        <v>0.02268</v>
+        <v>0.02267</v>
       </c>
       <c r="P4">
-        <v>0.094</v>
+        <v>0.09408999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2308,7 +2311,7 @@
         <v>0.00267</v>
       </c>
       <c r="E5">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2326,10 +2329,10 @@
         <v>0.00791</v>
       </c>
       <c r="K5">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L5">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2349,16 +2352,16 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.00679</v>
+        <v>0.00678</v>
       </c>
       <c r="C6">
-        <v>0.00663</v>
+        <v>0.00659</v>
       </c>
       <c r="D6">
-        <v>0.00696</v>
+        <v>0.00697</v>
       </c>
       <c r="E6">
-        <v>0.01402</v>
+        <v>0.01386</v>
       </c>
       <c r="F6">
         <v>0.00264</v>
@@ -2376,22 +2379,22 @@
         <v>0.00522</v>
       </c>
       <c r="K6">
-        <v>0.00248</v>
+        <v>0.00246</v>
       </c>
       <c r="L6">
         <v>0.00422</v>
       </c>
       <c r="M6">
-        <v>0.05639</v>
+        <v>0.05646</v>
       </c>
       <c r="N6">
         <v>0.01124</v>
       </c>
       <c r="O6">
-        <v>0.00813</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="P6">
-        <v>0.00559</v>
+        <v>0.00562</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M7">
         <v>0.01579</v>
@@ -2441,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2467,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="I8">
         <v>0.00037</v>
@@ -2476,7 +2479,7 @@
         <v>0.00292</v>
       </c>
       <c r="K8">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2523,22 +2526,22 @@
         <v>0.00198</v>
       </c>
       <c r="J9">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="K9">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L9">
-        <v>0.00544</v>
+        <v>0.00545</v>
       </c>
       <c r="M9">
-        <v>0.02349</v>
+        <v>0.02343</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="P9">
         <v>0.00203</v>
@@ -2676,7 +2679,7 @@
         <v>0.0044</v>
       </c>
       <c r="K12">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3009,16 +3012,16 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>0.68707</v>
+        <v>0.6869499999999999</v>
       </c>
       <c r="C2">
-        <v>0.78852</v>
+        <v>0.78859</v>
       </c>
       <c r="D2">
-        <v>0.58158</v>
+        <v>0.58128</v>
       </c>
       <c r="E2">
-        <v>0.80685</v>
+        <v>0.80696</v>
       </c>
       <c r="F2">
         <v>0.7900700000000001</v>
@@ -3027,31 +3030,31 @@
         <v>0.8577399999999999</v>
       </c>
       <c r="H2">
-        <v>0.5997</v>
+        <v>0.5998599999999999</v>
       </c>
       <c r="I2">
         <v>0.88511</v>
       </c>
       <c r="J2">
-        <v>0.55588</v>
+        <v>0.55587</v>
       </c>
       <c r="K2">
-        <v>0.699</v>
+        <v>0.69392</v>
       </c>
       <c r="L2">
-        <v>0.1844</v>
+        <v>0.18449</v>
       </c>
       <c r="M2">
         <v>0.009469999999999999</v>
       </c>
       <c r="N2">
-        <v>0.19308</v>
+        <v>0.19314</v>
       </c>
       <c r="O2">
-        <v>0.76901</v>
+        <v>0.76892</v>
       </c>
       <c r="P2">
-        <v>0.51912</v>
+        <v>0.5190399999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3059,49 +3062,49 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0.07394000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="C3">
-        <v>0.05945</v>
+        <v>0.0594</v>
       </c>
       <c r="D3">
-        <v>0.08901000000000001</v>
+        <v>0.08918</v>
       </c>
       <c r="E3">
-        <v>0.01588</v>
+        <v>0.01589</v>
       </c>
       <c r="F3">
-        <v>0.01715</v>
+        <v>0.01716</v>
       </c>
       <c r="G3">
-        <v>0.07919</v>
+        <v>0.07918</v>
       </c>
       <c r="H3">
-        <v>0.14003</v>
+        <v>0.13981</v>
       </c>
       <c r="I3">
-        <v>0.01838</v>
+        <v>0.01837</v>
       </c>
       <c r="J3">
-        <v>0.12947</v>
+        <v>0.12949</v>
       </c>
       <c r="K3">
-        <v>0.07749</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="L3">
-        <v>0.21064</v>
+        <v>0.21067</v>
       </c>
       <c r="M3">
         <v>0.05943</v>
       </c>
       <c r="N3">
-        <v>0.14222</v>
+        <v>0.14227</v>
       </c>
       <c r="O3">
-        <v>0.10849</v>
+        <v>0.10857</v>
       </c>
       <c r="P3">
-        <v>0.03148</v>
+        <v>0.03152</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3109,49 +3112,49 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0.07084</v>
+        <v>0.07098</v>
       </c>
       <c r="C4">
         <v>0.03829</v>
       </c>
       <c r="D4">
-        <v>0.10469</v>
+        <v>0.10496</v>
       </c>
       <c r="E4">
         <v>0.007990000000000001</v>
       </c>
       <c r="F4">
-        <v>0.05772</v>
+        <v>0.0577</v>
       </c>
       <c r="G4">
         <v>0.03057</v>
       </c>
       <c r="H4">
-        <v>0.08024000000000001</v>
+        <v>0.08026</v>
       </c>
       <c r="I4">
-        <v>0.03773</v>
+        <v>0.03774</v>
       </c>
       <c r="J4">
-        <v>0.13272</v>
+        <v>0.13271</v>
       </c>
       <c r="K4">
-        <v>0.09556000000000001</v>
+        <v>0.09979</v>
       </c>
       <c r="L4">
-        <v>0.20201</v>
+        <v>0.20208</v>
       </c>
       <c r="M4">
-        <v>0.06358999999999999</v>
+        <v>0.06353</v>
       </c>
       <c r="N4">
-        <v>0.14459</v>
+        <v>0.14434</v>
       </c>
       <c r="O4">
-        <v>0.06723</v>
+        <v>0.06722</v>
       </c>
       <c r="P4">
-        <v>0.10638</v>
+        <v>0.10635</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3159,13 +3162,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.04307</v>
+        <v>0.04302</v>
       </c>
       <c r="C5">
         <v>0.00039</v>
       </c>
       <c r="D5">
-        <v>0.08745</v>
+        <v>0.08733</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,25 +3186,25 @@
         <v>0.00157</v>
       </c>
       <c r="J5">
-        <v>0.07059</v>
+        <v>0.07058</v>
       </c>
       <c r="K5">
-        <v>0.05236</v>
+        <v>0.05201</v>
       </c>
       <c r="L5">
-        <v>0.07127</v>
+        <v>0.07128</v>
       </c>
       <c r="M5">
-        <v>0.16628</v>
+        <v>0.16629</v>
       </c>
       <c r="N5">
-        <v>0.08043</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="O5">
         <v>1E-05</v>
       </c>
       <c r="P5">
-        <v>0.17563</v>
+        <v>0.17551</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3209,7 +3212,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.04164</v>
+        <v>0.04165</v>
       </c>
       <c r="C6">
         <v>0.04298</v>
@@ -3221,37 +3224,37 @@
         <v>0.00912</v>
       </c>
       <c r="F6">
-        <v>0.12435</v>
+        <v>0.12436</v>
       </c>
       <c r="G6">
         <v>0.01867</v>
       </c>
       <c r="H6">
-        <v>0.08925</v>
+        <v>0.08928</v>
       </c>
       <c r="I6">
-        <v>0.03995</v>
+        <v>0.03994</v>
       </c>
       <c r="J6">
-        <v>0.04293</v>
+        <v>0.04294</v>
       </c>
       <c r="K6">
-        <v>0.0507</v>
+        <v>0.05039</v>
       </c>
       <c r="L6">
-        <v>0.26597</v>
+        <v>0.26611</v>
       </c>
       <c r="M6">
-        <v>0.13514</v>
+        <v>0.13515</v>
       </c>
       <c r="N6">
-        <v>0.38823</v>
+        <v>0.38835</v>
       </c>
       <c r="O6">
         <v>0.01011</v>
       </c>
       <c r="P6">
-        <v>0.01589</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3268,7 +3271,7 @@
         <v>0.00267</v>
       </c>
       <c r="E7">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3286,10 +3289,10 @@
         <v>0.00791</v>
       </c>
       <c r="K7">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L7">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3315,7 +3318,7 @@
         <v>0.00197</v>
       </c>
       <c r="D8">
-        <v>0.03192</v>
+        <v>0.03191</v>
       </c>
       <c r="E8">
         <v>0.00068</v>
@@ -3327,7 +3330,7 @@
         <v>0.00123</v>
       </c>
       <c r="H8">
-        <v>0.00514</v>
+        <v>0.00515</v>
       </c>
       <c r="I8">
         <v>0.00157</v>
@@ -3336,22 +3339,22 @@
         <v>0.01013</v>
       </c>
       <c r="K8">
-        <v>0.00178</v>
+        <v>0.00176</v>
       </c>
       <c r="L8">
         <v>0.00067</v>
       </c>
       <c r="M8">
-        <v>0.10578</v>
+        <v>0.10579</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0108</v>
+        <v>0.01079</v>
       </c>
       <c r="P8">
-        <v>0.07008</v>
+        <v>0.07016</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3362,10 +3365,10 @@
         <v>0.01107</v>
       </c>
       <c r="C9">
-        <v>0.01366</v>
+        <v>0.01367</v>
       </c>
       <c r="D9">
-        <v>0.008370000000000001</v>
+        <v>0.008359999999999999</v>
       </c>
       <c r="E9">
         <v>0.00136</v>
@@ -3374,10 +3377,10 @@
         <v>0.00175</v>
       </c>
       <c r="G9">
-        <v>0.00376</v>
+        <v>0.00377</v>
       </c>
       <c r="H9">
-        <v>0.05365</v>
+        <v>0.05367</v>
       </c>
       <c r="I9">
         <v>0.00457</v>
@@ -3386,7 +3389,7 @@
         <v>0.01161</v>
       </c>
       <c r="K9">
-        <v>0.00244</v>
+        <v>0.00242</v>
       </c>
       <c r="L9">
         <v>0.00364</v>
@@ -3401,7 +3404,7 @@
         <v>0.00506</v>
       </c>
       <c r="P9">
-        <v>0.00859</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3439,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M10">
         <v>0.01579</v>
@@ -3451,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3501,7 +3504,7 @@
         <v>0.00103</v>
       </c>
       <c r="P11">
-        <v>0.02052</v>
+        <v>0.02055</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3533,10 +3536,10 @@
         <v>0.00229</v>
       </c>
       <c r="J12">
-        <v>0.00684</v>
+        <v>0.00685</v>
       </c>
       <c r="K12">
-        <v>0.00395</v>
+        <v>0.00392</v>
       </c>
       <c r="L12">
         <v>0.00338</v>
@@ -3559,13 +3562,13 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <v>0.00342</v>
+        <v>0.00343</v>
       </c>
       <c r="C13">
         <v>0.00302</v>
       </c>
       <c r="D13">
-        <v>0.00384</v>
+        <v>0.00385</v>
       </c>
       <c r="E13">
         <v>0.00573</v>
@@ -3586,22 +3589,22 @@
         <v>0.00341</v>
       </c>
       <c r="K13">
-        <v>0.00223</v>
+        <v>0.00221</v>
       </c>
       <c r="L13">
         <v>0.00043</v>
       </c>
       <c r="M13">
-        <v>0.0204</v>
+        <v>0.02046</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.00557</v>
+        <v>0.00559</v>
       </c>
       <c r="P13">
-        <v>0.00266</v>
+        <v>0.00268</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3609,16 +3612,16 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="C14">
-        <v>0.00348</v>
+        <v>0.00343</v>
       </c>
       <c r="D14">
         <v>0.00206</v>
       </c>
       <c r="E14">
-        <v>0.00829</v>
+        <v>0.00812</v>
       </c>
       <c r="F14">
         <v>0.00173</v>
@@ -3665,7 +3668,7 @@
         <v>0.00011</v>
       </c>
       <c r="D15">
-        <v>0.00548</v>
+        <v>0.00547</v>
       </c>
       <c r="E15">
         <v>0.00014</v>
@@ -3686,13 +3689,13 @@
         <v>0.004</v>
       </c>
       <c r="K15">
-        <v>0.00194</v>
+        <v>0.00191</v>
       </c>
       <c r="L15">
         <v>0.00133</v>
       </c>
       <c r="M15">
-        <v>0.17758</v>
+        <v>0.17759</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3709,13 +3712,13 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <v>0.00249</v>
+        <v>0.00248</v>
       </c>
       <c r="C16">
         <v>0.00019</v>
       </c>
       <c r="D16">
-        <v>0.00488</v>
+        <v>0.00485</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3736,10 +3739,10 @@
         <v>0.00493</v>
       </c>
       <c r="K16">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L16">
-        <v>0.02467</v>
+        <v>0.02428</v>
       </c>
       <c r="M16">
         <v>0.01187</v>
@@ -3795,7 +3798,7 @@
         <v>0.03524</v>
       </c>
       <c r="N17">
-        <v>0.02306</v>
+        <v>0.02307</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3833,22 +3836,22 @@
         <v>0.00198</v>
       </c>
       <c r="J18">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="K18">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L18">
-        <v>0.00544</v>
+        <v>0.00545</v>
       </c>
       <c r="M18">
-        <v>0.02349</v>
+        <v>0.02343</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="P18">
         <v>0.00203</v>
@@ -3877,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3886,7 +3889,7 @@
         <v>0.00283</v>
       </c>
       <c r="K19">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3986,7 +3989,7 @@
         <v>0.00685</v>
       </c>
       <c r="K21">
-        <v>0.0028</v>
+        <v>0.00278</v>
       </c>
       <c r="L21">
         <v>0.00052</v>
@@ -4086,7 +4089,7 @@
         <v>0.0044</v>
       </c>
       <c r="K23">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4189,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0012</v>
+        <v>0.00121</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4786,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5169,49 +5172,49 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>0.46186</v>
+        <v>0.46172</v>
       </c>
       <c r="C2">
-        <v>0.473</v>
+        <v>0.47303</v>
       </c>
       <c r="D2">
-        <v>0.45026</v>
+        <v>0.44996</v>
       </c>
       <c r="E2">
-        <v>0.49772</v>
+        <v>0.49775</v>
       </c>
       <c r="F2">
-        <v>0.43763</v>
+        <v>0.43762</v>
       </c>
       <c r="G2">
-        <v>0.3969</v>
+        <v>0.39691</v>
       </c>
       <c r="H2">
-        <v>0.52948</v>
+        <v>0.5296</v>
       </c>
       <c r="I2">
-        <v>0.49724</v>
+        <v>0.49723</v>
       </c>
       <c r="J2">
-        <v>0.53492</v>
+        <v>0.53487</v>
       </c>
       <c r="K2">
-        <v>0.56845</v>
+        <v>0.56431</v>
       </c>
       <c r="L2">
-        <v>0.16656</v>
+        <v>0.16665</v>
       </c>
       <c r="M2">
         <v>0.00889</v>
       </c>
       <c r="N2">
-        <v>0.14666</v>
+        <v>0.1467</v>
       </c>
       <c r="O2">
-        <v>0.39862</v>
+        <v>0.39853</v>
       </c>
       <c r="P2">
-        <v>0.49148</v>
+        <v>0.49137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5219,49 +5222,49 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>0.10872</v>
+        <v>0.10874</v>
       </c>
       <c r="C3">
-        <v>0.11109</v>
+        <v>0.11111</v>
       </c>
       <c r="D3">
-        <v>0.10625</v>
+        <v>0.10627</v>
       </c>
       <c r="E3">
-        <v>0.21357</v>
+        <v>0.21362</v>
       </c>
       <c r="F3">
-        <v>0.10795</v>
+        <v>0.10797</v>
       </c>
       <c r="G3">
         <v>0.08109</v>
       </c>
       <c r="H3">
-        <v>0.03111</v>
+        <v>0.03112</v>
       </c>
       <c r="I3">
-        <v>0.09415999999999999</v>
+        <v>0.09418</v>
       </c>
       <c r="J3">
         <v>0.00579</v>
       </c>
       <c r="K3">
-        <v>0.10852</v>
+        <v>0.10772</v>
       </c>
       <c r="L3">
-        <v>0.01199</v>
+        <v>0.012</v>
       </c>
       <c r="M3">
         <v>0.0006400000000000001</v>
       </c>
       <c r="N3">
-        <v>0.04642</v>
+        <v>0.04644</v>
       </c>
       <c r="O3">
-        <v>0.30207</v>
+        <v>0.30214</v>
       </c>
       <c r="P3">
-        <v>0.02702</v>
+        <v>0.02705</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5269,34 +5272,34 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>0.10222</v>
+        <v>0.10223</v>
       </c>
       <c r="C4">
-        <v>0.18592</v>
+        <v>0.18594</v>
       </c>
       <c r="D4">
-        <v>0.01514</v>
+        <v>0.01515</v>
       </c>
       <c r="E4">
-        <v>0.07036000000000001</v>
+        <v>0.07038</v>
       </c>
       <c r="F4">
-        <v>0.23998</v>
+        <v>0.23999</v>
       </c>
       <c r="G4">
         <v>0.34048</v>
       </c>
       <c r="H4">
-        <v>0.03761</v>
+        <v>0.03762</v>
       </c>
       <c r="I4">
-        <v>0.29018</v>
+        <v>0.29017</v>
       </c>
       <c r="J4">
-        <v>0.008959999999999999</v>
+        <v>0.00899</v>
       </c>
       <c r="K4">
-        <v>0.01475</v>
+        <v>0.01466</v>
       </c>
       <c r="L4">
         <v>0.00519</v>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04086</v>
+        <v>0.04085</v>
       </c>
       <c r="P4">
         <v>0.00031</v>
@@ -5319,16 +5322,16 @@
         <v>89</v>
       </c>
       <c r="B5">
-        <v>0.07383000000000001</v>
+        <v>0.07389</v>
       </c>
       <c r="C5">
-        <v>0.05936</v>
+        <v>0.05931</v>
       </c>
       <c r="D5">
-        <v>0.08890000000000001</v>
+        <v>0.08907</v>
       </c>
       <c r="E5">
-        <v>0.01588</v>
+        <v>0.01589</v>
       </c>
       <c r="F5">
         <v>0.01665</v>
@@ -5337,31 +5340,31 @@
         <v>0.07919</v>
       </c>
       <c r="H5">
-        <v>0.14012</v>
+        <v>0.13991</v>
       </c>
       <c r="I5">
-        <v>0.018</v>
+        <v>0.01799</v>
       </c>
       <c r="J5">
-        <v>0.12873</v>
+        <v>0.12875</v>
       </c>
       <c r="K5">
-        <v>0.07749</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="L5">
-        <v>0.21056</v>
+        <v>0.21058</v>
       </c>
       <c r="M5">
         <v>0.05978</v>
       </c>
       <c r="N5">
-        <v>0.14222</v>
+        <v>0.14227</v>
       </c>
       <c r="O5">
-        <v>0.10868</v>
+        <v>0.10876</v>
       </c>
       <c r="P5">
-        <v>0.03145</v>
+        <v>0.03149</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5369,13 +5372,13 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.0431</v>
+        <v>0.04304</v>
       </c>
       <c r="C6">
         <v>0.00039</v>
       </c>
       <c r="D6">
-        <v>0.08753</v>
+        <v>0.08741</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5396,22 +5399,22 @@
         <v>0.07061000000000001</v>
       </c>
       <c r="K6">
-        <v>0.05236</v>
+        <v>0.05201</v>
       </c>
       <c r="L6">
-        <v>0.07131</v>
+        <v>0.07133</v>
       </c>
       <c r="M6">
-        <v>0.16726</v>
+        <v>0.16727</v>
       </c>
       <c r="N6">
-        <v>0.08043</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="O6">
         <v>1E-05</v>
       </c>
       <c r="P6">
-        <v>0.17572</v>
+        <v>0.17561</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5422,13 +5425,13 @@
         <v>0.04068</v>
       </c>
       <c r="C7">
-        <v>0.04171</v>
+        <v>0.04172</v>
       </c>
       <c r="D7">
         <v>0.03961</v>
       </c>
       <c r="E7">
-        <v>0.008460000000000001</v>
+        <v>0.00847</v>
       </c>
       <c r="F7">
         <v>0.12229</v>
@@ -5437,31 +5440,31 @@
         <v>0.01822</v>
       </c>
       <c r="H7">
-        <v>0.08746</v>
+        <v>0.08749</v>
       </c>
       <c r="I7">
         <v>0.03751</v>
       </c>
       <c r="J7">
-        <v>0.04276</v>
+        <v>0.04277</v>
       </c>
       <c r="K7">
-        <v>0.0507</v>
+        <v>0.05039</v>
       </c>
       <c r="L7">
-        <v>0.26613</v>
+        <v>0.26628</v>
       </c>
       <c r="M7">
-        <v>0.13156</v>
+        <v>0.13157</v>
       </c>
       <c r="N7">
-        <v>0.38823</v>
+        <v>0.38835</v>
       </c>
       <c r="O7">
         <v>0.00916</v>
       </c>
       <c r="P7">
-        <v>0.01511</v>
+        <v>0.01512</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5469,13 +5472,13 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>0.02507</v>
+        <v>0.02519</v>
       </c>
       <c r="C8">
-        <v>0.02005</v>
+        <v>0.02003</v>
       </c>
       <c r="D8">
-        <v>0.03029</v>
+        <v>0.03055</v>
       </c>
       <c r="E8">
         <v>0.00614</v>
@@ -5484,19 +5487,19 @@
         <v>0.009860000000000001</v>
       </c>
       <c r="G8">
-        <v>0.02772</v>
+        <v>0.02771</v>
       </c>
       <c r="H8">
-        <v>0.0438</v>
+        <v>0.04376</v>
       </c>
       <c r="I8">
-        <v>0.00574</v>
+        <v>0.00575</v>
       </c>
       <c r="J8">
-        <v>0.07914</v>
+        <v>0.07911</v>
       </c>
       <c r="K8">
-        <v>0.03528</v>
+        <v>0.03977</v>
       </c>
       <c r="L8">
         <v>0.04585</v>
@@ -5505,13 +5508,13 @@
         <v>0.0209</v>
       </c>
       <c r="N8">
-        <v>0.008569999999999999</v>
+        <v>0.008279999999999999</v>
       </c>
       <c r="O8">
         <v>0.00445</v>
       </c>
       <c r="P8">
-        <v>0.01888</v>
+        <v>0.01876</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5525,43 +5528,43 @@
         <v>0.00549</v>
       </c>
       <c r="D9">
-        <v>0.04059</v>
+        <v>0.04058</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01965</v>
+        <v>0.01964</v>
       </c>
       <c r="G9">
         <v>5E-05</v>
       </c>
       <c r="H9">
-        <v>0.01633</v>
+        <v>0.01634</v>
       </c>
       <c r="I9">
         <v>0.00276</v>
       </c>
       <c r="J9">
-        <v>0.01863</v>
+        <v>0.01864</v>
       </c>
       <c r="K9">
-        <v>0.03183</v>
+        <v>0.0316</v>
       </c>
       <c r="L9">
-        <v>0.10603</v>
+        <v>0.10607</v>
       </c>
       <c r="M9">
-        <v>0.00743</v>
+        <v>0.00737</v>
       </c>
       <c r="N9">
-        <v>0.09077</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="O9">
-        <v>0.0501</v>
+        <v>0.05009</v>
       </c>
       <c r="P9">
-        <v>0.0386</v>
+        <v>0.03865</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5569,13 +5572,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>0.0214</v>
+        <v>0.02142</v>
       </c>
       <c r="C10">
-        <v>0.01228</v>
+        <v>0.0123</v>
       </c>
       <c r="D10">
-        <v>0.03089</v>
+        <v>0.0309</v>
       </c>
       <c r="E10">
         <v>0.00184</v>
@@ -5584,34 +5587,34 @@
         <v>0.02784</v>
       </c>
       <c r="G10">
-        <v>0.00226</v>
+        <v>0.00227</v>
       </c>
       <c r="H10">
-        <v>0.01922</v>
+        <v>0.01928</v>
       </c>
       <c r="I10">
         <v>0.02864</v>
       </c>
       <c r="J10">
-        <v>0.03018</v>
+        <v>0.03019</v>
       </c>
       <c r="K10">
-        <v>0.02751</v>
+        <v>0.0275</v>
       </c>
       <c r="L10">
-        <v>0.04643</v>
+        <v>0.04645</v>
       </c>
       <c r="M10">
         <v>0.03564</v>
       </c>
       <c r="N10">
-        <v>0.04524</v>
+        <v>0.04525</v>
       </c>
       <c r="O10">
         <v>0.00976</v>
       </c>
       <c r="P10">
-        <v>0.04659</v>
+        <v>0.04663</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5628,7 +5631,7 @@
         <v>0.00267</v>
       </c>
       <c r="E11">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5646,10 +5649,10 @@
         <v>0.00791</v>
       </c>
       <c r="K11">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L11">
-        <v>0.0167</v>
+        <v>0.01671</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -5669,10 +5672,10 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>0.01592</v>
+        <v>0.01593</v>
       </c>
       <c r="C12">
-        <v>0.00176</v>
+        <v>0.00177</v>
       </c>
       <c r="D12">
         <v>0.03066</v>
@@ -5696,7 +5699,7 @@
         <v>0.009889999999999999</v>
       </c>
       <c r="K12">
-        <v>0.00156</v>
+        <v>0.00155</v>
       </c>
       <c r="L12">
         <v>0.00017</v>
@@ -5711,7 +5714,7 @@
         <v>0.00687</v>
       </c>
       <c r="P12">
-        <v>0.0701</v>
+        <v>0.07018000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5725,13 +5728,13 @@
         <v>0.01508</v>
       </c>
       <c r="D13">
-        <v>0.008529999999999999</v>
+        <v>0.00852</v>
       </c>
       <c r="E13">
         <v>0.0252</v>
       </c>
       <c r="F13">
-        <v>0.00203</v>
+        <v>0.00202</v>
       </c>
       <c r="G13">
         <v>0.02755</v>
@@ -5746,7 +5749,7 @@
         <v>0.00095</v>
       </c>
       <c r="K13">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5758,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.02752</v>
+        <v>0.02751</v>
       </c>
       <c r="P13">
         <v>0.00049</v>
@@ -5787,16 +5790,16 @@
         <v>0.00315</v>
       </c>
       <c r="H14">
-        <v>0.05327</v>
+        <v>0.05329</v>
       </c>
       <c r="I14">
         <v>0.00443</v>
       </c>
       <c r="J14">
-        <v>0.01035</v>
+        <v>0.01036</v>
       </c>
       <c r="K14">
-        <v>0.00192</v>
+        <v>0.00191</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -5811,7 +5814,7 @@
         <v>0.00507</v>
       </c>
       <c r="P14">
-        <v>0.00754</v>
+        <v>0.00755</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5849,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.00215</v>
+        <v>0.00218</v>
       </c>
       <c r="M15">
         <v>0.01588</v>
@@ -5861,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.02281</v>
+        <v>0.02283</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5911,7 +5914,7 @@
         <v>0.00103</v>
       </c>
       <c r="P16">
-        <v>0.02053</v>
+        <v>0.02056</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -5937,7 +5940,7 @@
         <v>0.00144</v>
       </c>
       <c r="H17">
-        <v>0.00619</v>
+        <v>0.0062</v>
       </c>
       <c r="I17">
         <v>0.00229</v>
@@ -5946,7 +5949,7 @@
         <v>0.00685</v>
       </c>
       <c r="K17">
-        <v>0.00395</v>
+        <v>0.00392</v>
       </c>
       <c r="L17">
         <v>0.00338</v>
@@ -5996,7 +5999,7 @@
         <v>0.00333</v>
       </c>
       <c r="K18">
-        <v>0.00223</v>
+        <v>0.00221</v>
       </c>
       <c r="L18">
         <v>0.00043</v>
@@ -6008,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.00541</v>
+        <v>0.0054</v>
       </c>
       <c r="P18">
         <v>0.0016</v>
@@ -6019,13 +6022,13 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>0.00275</v>
+        <v>0.00274</v>
       </c>
       <c r="C19">
         <v>0.00367</v>
       </c>
       <c r="D19">
-        <v>0.00178</v>
+        <v>0.00177</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6046,10 +6049,10 @@
         <v>0.00545</v>
       </c>
       <c r="K19">
-        <v>0.0045</v>
+        <v>0.00447</v>
       </c>
       <c r="L19">
-        <v>0.00077</v>
+        <v>0.00078</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -6058,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.00091</v>
+        <v>0.00087</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -6096,13 +6099,13 @@
         <v>0.004</v>
       </c>
       <c r="K20">
-        <v>0.00194</v>
+        <v>0.00191</v>
       </c>
       <c r="L20">
-        <v>0.00133</v>
+        <v>0.00134</v>
       </c>
       <c r="M20">
-        <v>0.17863</v>
+        <v>0.17864</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -6119,16 +6122,16 @@
         <v>103</v>
       </c>
       <c r="B21">
-        <v>0.00273</v>
+        <v>0.00271</v>
       </c>
       <c r="C21">
-        <v>0.00344</v>
+        <v>0.0034</v>
       </c>
       <c r="D21">
         <v>0.00199</v>
       </c>
       <c r="E21">
-        <v>0.00817</v>
+        <v>0.00801</v>
       </c>
       <c r="F21">
         <v>0.00173</v>
@@ -6143,7 +6146,7 @@
         <v>0.00144</v>
       </c>
       <c r="J21">
-        <v>0.00178</v>
+        <v>0.00179</v>
       </c>
       <c r="K21">
         <v>0.00025</v>
@@ -6169,13 +6172,13 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>0.00249</v>
+        <v>0.00248</v>
       </c>
       <c r="C22">
         <v>0.00019</v>
       </c>
       <c r="D22">
-        <v>0.00488</v>
+        <v>0.00486</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6196,10 +6199,10 @@
         <v>0.00493</v>
       </c>
       <c r="K22">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L22">
-        <v>0.02469</v>
+        <v>0.02429</v>
       </c>
       <c r="M22">
         <v>0.01194</v>
@@ -6211,7 +6214,7 @@
         <v>4E-05</v>
       </c>
       <c r="P22">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6225,7 +6228,7 @@
         <v>0.00261</v>
       </c>
       <c r="D23">
-        <v>0.00172</v>
+        <v>0.00171</v>
       </c>
       <c r="E23">
         <v>0.00198</v>
@@ -6255,7 +6258,7 @@
         <v>0.03545</v>
       </c>
       <c r="N23">
-        <v>0.02306</v>
+        <v>0.02307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6287,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00614</v>
+        <v>0.00613</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6296,7 +6299,7 @@
         <v>0.00283</v>
       </c>
       <c r="K24">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6311,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.00198</v>
+        <v>0.00199</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6396,7 +6399,7 @@
         <v>0.00685</v>
       </c>
       <c r="K26">
-        <v>0.0028</v>
+        <v>0.00278</v>
       </c>
       <c r="L26">
         <v>0.00052</v>
@@ -6493,7 +6496,7 @@
         <v>0.00028</v>
       </c>
       <c r="J28">
-        <v>0.00428</v>
+        <v>0.00429</v>
       </c>
       <c r="K28">
         <v>0.0009300000000000001</v>
@@ -6511,7 +6514,7 @@
         <v>0.00012</v>
       </c>
       <c r="P28">
-        <v>0.00223</v>
+        <v>0.00224</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -6540,7 +6543,7 @@
         <v>0.00188</v>
       </c>
       <c r="I29">
-        <v>0.0023</v>
+        <v>0.00229</v>
       </c>
       <c r="J29">
         <v>0.00018</v>
@@ -6596,7 +6599,7 @@
         <v>0.0044</v>
       </c>
       <c r="K30">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -6725,7 +6728,7 @@
         <v>0.00021</v>
       </c>
       <c r="D33">
-        <v>0.00129</v>
+        <v>0.00128</v>
       </c>
       <c r="E33">
         <v>0.00014</v>
@@ -6746,7 +6749,7 @@
         <v>0.00024</v>
       </c>
       <c r="K33">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L33">
         <v>0.0005</v>
@@ -6843,22 +6846,22 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.00035</v>
+        <v>0.00036</v>
       </c>
       <c r="K35">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L35">
         <v>0.00482</v>
       </c>
       <c r="M35">
-        <v>0.01772</v>
+        <v>0.01766</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="P35">
         <v>0.00073</v>
@@ -7019,13 +7022,13 @@
         <v>118</v>
       </c>
       <c r="B39">
-        <v>0.00022</v>
+        <v>0.00023</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.00046</v>
+        <v>0.00047</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7052,16 +7055,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.01467</v>
+        <v>0.01474</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="P39">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -7152,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.00603</v>
+        <v>0.00604</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -7511,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -7946,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8371,7 +8374,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P137"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8429,49 +8432,49 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>0.46139</v>
+        <v>0.46132</v>
       </c>
       <c r="C2">
-        <v>0.46669</v>
+        <v>0.46672</v>
       </c>
       <c r="D2">
-        <v>0.45586</v>
+        <v>0.45568</v>
       </c>
       <c r="E2">
-        <v>0.48585</v>
+        <v>0.48587</v>
       </c>
       <c r="F2">
-        <v>0.43342</v>
+        <v>0.43343</v>
       </c>
       <c r="G2">
-        <v>0.38435</v>
+        <v>0.38436</v>
       </c>
       <c r="H2">
-        <v>0.54309</v>
+        <v>0.5432399999999999</v>
       </c>
       <c r="I2">
-        <v>0.48688</v>
+        <v>0.48687</v>
       </c>
       <c r="J2">
-        <v>0.55636</v>
+        <v>0.55631</v>
       </c>
       <c r="K2">
-        <v>0.57729</v>
+        <v>0.57531</v>
       </c>
       <c r="L2">
-        <v>0.16649</v>
+        <v>0.16658</v>
       </c>
       <c r="M2">
         <v>0.00894</v>
       </c>
       <c r="N2">
-        <v>0.14666</v>
+        <v>0.1467</v>
       </c>
       <c r="O2">
-        <v>0.40001</v>
+        <v>0.39991</v>
       </c>
       <c r="P2">
-        <v>0.49413</v>
+        <v>0.49402</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8479,34 +8482,34 @@
         <v>144</v>
       </c>
       <c r="B3">
-        <v>0.10339</v>
+        <v>0.10341</v>
       </c>
       <c r="C3">
-        <v>0.18769</v>
+        <v>0.18772</v>
       </c>
       <c r="D3">
-        <v>0.01535</v>
+        <v>0.01536</v>
       </c>
       <c r="E3">
-        <v>0.07056</v>
+        <v>0.07058</v>
       </c>
       <c r="F3">
-        <v>0.24092</v>
+        <v>0.24093</v>
       </c>
       <c r="G3">
         <v>0.34134</v>
       </c>
       <c r="H3">
-        <v>0.03897</v>
+        <v>0.03899</v>
       </c>
       <c r="I3">
         <v>0.29065</v>
       </c>
       <c r="J3">
-        <v>0.009339999999999999</v>
+        <v>0.00937</v>
       </c>
       <c r="K3">
-        <v>0.01503</v>
+        <v>0.015</v>
       </c>
       <c r="L3">
         <v>0.00521</v>
@@ -8518,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.041</v>
+        <v>0.04099</v>
       </c>
       <c r="P3">
         <v>0.00031</v>
@@ -8529,49 +8532,49 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>0.04381</v>
+        <v>0.04384</v>
       </c>
       <c r="C4">
-        <v>0.03446</v>
+        <v>0.0344</v>
       </c>
       <c r="D4">
-        <v>0.05359</v>
+        <v>0.05369</v>
       </c>
       <c r="E4">
-        <v>0.01127</v>
+        <v>0.01128</v>
       </c>
       <c r="F4">
         <v>0.008070000000000001</v>
       </c>
       <c r="G4">
-        <v>0.06122</v>
+        <v>0.0612</v>
       </c>
       <c r="H4">
-        <v>0.06347999999999999</v>
+        <v>0.06322</v>
       </c>
       <c r="I4">
-        <v>0.00764</v>
+        <v>0.00765</v>
       </c>
       <c r="J4">
-        <v>0.12188</v>
+        <v>0.12186</v>
       </c>
       <c r="K4">
-        <v>0.06676</v>
+        <v>0.06796000000000001</v>
       </c>
       <c r="L4">
-        <v>0.06437</v>
+        <v>0.06433999999999999</v>
       </c>
       <c r="M4">
-        <v>0.09472</v>
+        <v>0.09479</v>
       </c>
       <c r="N4">
-        <v>0.15937</v>
+        <v>0.15912</v>
       </c>
       <c r="O4">
-        <v>0.03184</v>
+        <v>0.03186</v>
       </c>
       <c r="P4">
-        <v>0.02327</v>
+        <v>0.02332</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8579,13 +8582,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.04359</v>
+        <v>0.04354</v>
       </c>
       <c r="C5">
         <v>0.0004</v>
       </c>
       <c r="D5">
-        <v>0.0887</v>
+        <v>0.08860999999999999</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8606,22 +8609,22 @@
         <v>0.0736</v>
       </c>
       <c r="K5">
-        <v>0.05337</v>
+        <v>0.05321</v>
       </c>
       <c r="L5">
-        <v>0.07163</v>
+        <v>0.07165000000000001</v>
       </c>
       <c r="M5">
-        <v>0.16817</v>
+        <v>0.16818</v>
       </c>
       <c r="N5">
-        <v>0.08043</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="O5">
         <v>1E-05</v>
       </c>
       <c r="P5">
-        <v>0.17667</v>
+        <v>0.17656</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8629,49 +8632,49 @@
         <v>145</v>
       </c>
       <c r="B6">
-        <v>0.04115</v>
+        <v>0.04116</v>
       </c>
       <c r="C6">
         <v>0.04211</v>
       </c>
       <c r="D6">
-        <v>0.04014</v>
+        <v>0.04015</v>
       </c>
       <c r="E6">
         <v>0.008489999999999999</v>
       </c>
       <c r="F6">
-        <v>0.12276</v>
+        <v>0.12277</v>
       </c>
       <c r="G6">
         <v>0.01827</v>
       </c>
       <c r="H6">
-        <v>0.09064</v>
+        <v>0.09067</v>
       </c>
       <c r="I6">
         <v>0.03757</v>
       </c>
       <c r="J6">
-        <v>0.04457</v>
+        <v>0.04458</v>
       </c>
       <c r="K6">
-        <v>0.05167</v>
+        <v>0.05156</v>
       </c>
       <c r="L6">
-        <v>0.26734</v>
+        <v>0.26748</v>
       </c>
       <c r="M6">
-        <v>0.13227</v>
+        <v>0.13228</v>
       </c>
       <c r="N6">
-        <v>0.38823</v>
+        <v>0.38835</v>
       </c>
       <c r="O6">
         <v>0.00919</v>
       </c>
       <c r="P6">
-        <v>0.01519</v>
+        <v>0.01521</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8679,16 +8682,16 @@
         <v>146</v>
       </c>
       <c r="B7">
-        <v>0.03969</v>
+        <v>0.03971</v>
       </c>
       <c r="C7">
-        <v>0.06436</v>
+        <v>0.06437</v>
       </c>
       <c r="D7">
-        <v>0.01392</v>
+        <v>0.01395</v>
       </c>
       <c r="E7">
-        <v>0.08534</v>
+        <v>0.08537</v>
       </c>
       <c r="F7">
         <v>0.06277000000000001</v>
@@ -8697,7 +8700,7 @@
         <v>0.0721</v>
       </c>
       <c r="H7">
-        <v>0.02596</v>
+        <v>0.02597</v>
       </c>
       <c r="I7">
         <v>0.06557</v>
@@ -8706,7 +8709,7 @@
         <v>0.0029</v>
       </c>
       <c r="K7">
-        <v>0.01635</v>
+        <v>0.01631</v>
       </c>
       <c r="L7">
         <v>0.00056</v>
@@ -8718,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04053</v>
+        <v>0.04063</v>
       </c>
       <c r="P7">
         <v>0.00094</v>
@@ -8732,40 +8735,40 @@
         <v>0.0291</v>
       </c>
       <c r="C8">
-        <v>0.04779</v>
+        <v>0.0478</v>
       </c>
       <c r="D8">
         <v>0.00958</v>
       </c>
       <c r="E8">
-        <v>0.12883</v>
+        <v>0.12886</v>
       </c>
       <c r="F8">
-        <v>0.04561</v>
+        <v>0.04563</v>
       </c>
       <c r="G8">
-        <v>0.0092</v>
+        <v>0.00919</v>
       </c>
       <c r="H8">
         <v>0.00628</v>
       </c>
       <c r="I8">
-        <v>0.02875</v>
+        <v>0.02876</v>
       </c>
       <c r="J8">
         <v>0.00313</v>
       </c>
       <c r="K8">
-        <v>0.09425</v>
+        <v>0.09390999999999999</v>
       </c>
       <c r="L8">
-        <v>0.01148</v>
+        <v>0.01149</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.04642</v>
+        <v>0.04644</v>
       </c>
       <c r="O8">
         <v>0.00017</v>
@@ -8785,43 +8788,43 @@
         <v>0.00554</v>
       </c>
       <c r="D9">
-        <v>0.04113</v>
+        <v>0.04114</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01973</v>
+        <v>0.01972</v>
       </c>
       <c r="G9">
         <v>5E-05</v>
       </c>
       <c r="H9">
-        <v>0.01692</v>
+        <v>0.01693</v>
       </c>
       <c r="I9">
         <v>0.00276</v>
       </c>
       <c r="J9">
-        <v>0.01942</v>
+        <v>0.01943</v>
       </c>
       <c r="K9">
-        <v>0.03245</v>
+        <v>0.03233</v>
       </c>
       <c r="L9">
-        <v>0.10651</v>
+        <v>0.10655</v>
       </c>
       <c r="M9">
-        <v>0.00747</v>
+        <v>0.00741</v>
       </c>
       <c r="N9">
-        <v>0.09077</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="O9">
         <v>0.05027</v>
       </c>
       <c r="P9">
-        <v>0.03881</v>
+        <v>0.03886</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8832,13 +8835,13 @@
         <v>0.02052</v>
       </c>
       <c r="C10">
-        <v>0.03756</v>
+        <v>0.03757</v>
       </c>
       <c r="D10">
         <v>0.00271</v>
       </c>
       <c r="E10">
-        <v>0.13622</v>
+        <v>0.13626</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8856,10 +8859,10 @@
         <v>0.00825</v>
       </c>
       <c r="K10">
-        <v>0.00048</v>
+        <v>0.00047</v>
       </c>
       <c r="L10">
-        <v>0.01678</v>
+        <v>0.01679</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -8885,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03857</v>
+        <v>0.03858</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8929,13 +8932,13 @@
         <v>150</v>
       </c>
       <c r="B12">
-        <v>0.01854</v>
+        <v>0.01855</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03791</v>
+        <v>0.03792</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8968,10 +8971,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.10643</v>
+        <v>0.10642</v>
       </c>
       <c r="P12">
-        <v>0.0194</v>
+        <v>0.01943</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -8979,13 +8982,13 @@
         <v>151</v>
       </c>
       <c r="B13">
-        <v>0.01846</v>
+        <v>0.01847</v>
       </c>
       <c r="C13">
-        <v>0.02383</v>
+        <v>0.02384</v>
       </c>
       <c r="D13">
-        <v>0.01285</v>
+        <v>0.01286</v>
       </c>
       <c r="E13">
         <v>0.00032</v>
@@ -8997,31 +9000,31 @@
         <v>0.02877</v>
       </c>
       <c r="H13">
-        <v>0.06474000000000001</v>
+        <v>0.06478</v>
       </c>
       <c r="I13">
         <v>0.01135</v>
       </c>
       <c r="J13">
-        <v>0.03229</v>
+        <v>0.03231</v>
       </c>
       <c r="K13">
-        <v>0.03398</v>
+        <v>0.03384</v>
       </c>
       <c r="L13">
-        <v>0.01769</v>
+        <v>0.0177</v>
       </c>
       <c r="M13">
-        <v>0.00453</v>
+        <v>0.00454</v>
       </c>
       <c r="N13">
-        <v>0.01212</v>
+        <v>0.01213</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.00762</v>
+        <v>0.00763</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9029,13 +9032,13 @@
         <v>152</v>
       </c>
       <c r="B14">
-        <v>0.01398</v>
+        <v>0.01399</v>
       </c>
       <c r="C14">
         <v>0.008189999999999999</v>
       </c>
       <c r="D14">
-        <v>0.02004</v>
+        <v>0.02005</v>
       </c>
       <c r="E14">
         <v>0.00117</v>
@@ -9047,7 +9050,7 @@
         <v>0.00109</v>
       </c>
       <c r="H14">
-        <v>0.0054</v>
+        <v>0.00541</v>
       </c>
       <c r="I14">
         <v>0.02632</v>
@@ -9056,10 +9059,10 @@
         <v>0.0145</v>
       </c>
       <c r="K14">
-        <v>0.01482</v>
+        <v>0.01496</v>
       </c>
       <c r="L14">
-        <v>0.02009</v>
+        <v>0.0201</v>
       </c>
       <c r="M14">
         <v>0.01597</v>
@@ -9071,7 +9074,7 @@
         <v>0.00204</v>
       </c>
       <c r="P14">
-        <v>0.0396</v>
+        <v>0.03965</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9082,16 +9085,16 @@
         <v>0.012</v>
       </c>
       <c r="C15">
-        <v>0.01522</v>
+        <v>0.01523</v>
       </c>
       <c r="D15">
         <v>0.00864</v>
       </c>
       <c r="E15">
-        <v>0.02527</v>
+        <v>0.02528</v>
       </c>
       <c r="F15">
-        <v>0.00204</v>
+        <v>0.00202</v>
       </c>
       <c r="G15">
         <v>0.02762</v>
@@ -9106,7 +9109,7 @@
         <v>0.00099</v>
       </c>
       <c r="K15">
-        <v>0.00284</v>
+        <v>0.00282</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -9118,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02762</v>
+        <v>0.02761</v>
       </c>
       <c r="P15">
         <v>0.0005</v>
@@ -9147,16 +9150,16 @@
         <v>0.00316</v>
       </c>
       <c r="H16">
-        <v>0.0552</v>
+        <v>0.05523</v>
       </c>
       <c r="I16">
         <v>0.00444</v>
       </c>
       <c r="J16">
-        <v>0.01079</v>
+        <v>0.0108</v>
       </c>
       <c r="K16">
-        <v>0.00196</v>
+        <v>0.00195</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -9171,7 +9174,7 @@
         <v>0.00508</v>
       </c>
       <c r="P16">
-        <v>0.00758</v>
+        <v>0.00759</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9212,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02516</v>
+        <v>0.02517</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -9221,7 +9224,7 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="P17">
-        <v>0.05637</v>
+        <v>0.05644</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9229,13 +9232,13 @@
         <v>156</v>
       </c>
       <c r="B18">
-        <v>0.00881</v>
+        <v>0.00886</v>
       </c>
       <c r="C18">
         <v>0.008330000000000001</v>
       </c>
       <c r="D18">
-        <v>0.009310000000000001</v>
+        <v>0.00942</v>
       </c>
       <c r="E18">
         <v>0.00461</v>
@@ -9247,7 +9250,7 @@
         <v>0.00324</v>
       </c>
       <c r="H18">
-        <v>0.02677</v>
+        <v>0.02676</v>
       </c>
       <c r="I18">
         <v>0.00261</v>
@@ -9256,7 +9259,7 @@
         <v>0.01807</v>
       </c>
       <c r="K18">
-        <v>0.00207</v>
+        <v>0.00364</v>
       </c>
       <c r="L18">
         <v>0.0405</v>
@@ -9271,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.00865</v>
+        <v>0.008659999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9285,7 +9288,7 @@
         <v>3E-05</v>
       </c>
       <c r="D19">
-        <v>0.013</v>
+        <v>0.01301</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -9300,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="J19">
         <v>0.00057</v>
@@ -9318,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04302</v>
+        <v>0.04301</v>
       </c>
       <c r="P19">
         <v>0.00055</v>
@@ -9341,13 +9344,13 @@
         <v>0.0133</v>
       </c>
       <c r="F20">
-        <v>0.00592</v>
+        <v>0.00591</v>
       </c>
       <c r="G20">
         <v>0.01356</v>
       </c>
       <c r="H20">
-        <v>0.0056</v>
+        <v>0.00561</v>
       </c>
       <c r="I20">
         <v>0.01118</v>
@@ -9397,7 +9400,7 @@
         <v>0.00114</v>
       </c>
       <c r="H21">
-        <v>0.00655</v>
+        <v>0.00656</v>
       </c>
       <c r="I21">
         <v>0.00096</v>
@@ -9418,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.02278</v>
+        <v>0.02277</v>
       </c>
       <c r="P21">
         <v>8.000000000000001E-05</v>
@@ -9435,7 +9438,7 @@
         <v>0.0002</v>
       </c>
       <c r="D22">
-        <v>0.008569999999999999</v>
+        <v>0.008580000000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -9459,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.00216</v>
+        <v>0.00219</v>
       </c>
       <c r="M22">
         <v>0.01597</v>
@@ -9471,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.02293</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9479,13 +9482,13 @@
         <v>161</v>
       </c>
       <c r="B23">
-        <v>0.00428</v>
+        <v>0.00429</v>
       </c>
       <c r="C23">
         <v>6E-05</v>
       </c>
       <c r="D23">
-        <v>0.00869</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9521,7 +9524,7 @@
         <v>0.00103</v>
       </c>
       <c r="P23">
-        <v>0.02065</v>
+        <v>0.02067</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9532,10 +9535,10 @@
         <v>0.00352</v>
       </c>
       <c r="C24">
-        <v>4E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="D24">
-        <v>0.00715</v>
+        <v>0.00716</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -9571,7 +9574,7 @@
         <v>0.00291</v>
       </c>
       <c r="P24">
-        <v>0.009010000000000001</v>
+        <v>0.00902</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9588,7 +9591,7 @@
         <v>0.0028</v>
       </c>
       <c r="E25">
-        <v>0.00494</v>
+        <v>0.00495</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -9603,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.00485</v>
+        <v>0.00486</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9621,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.00455</v>
+        <v>0.00456</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9656,7 +9659,7 @@
         <v>0.00347</v>
       </c>
       <c r="K26">
-        <v>0.00227</v>
+        <v>0.00226</v>
       </c>
       <c r="L26">
         <v>0.00043</v>
@@ -9679,13 +9682,13 @@
         <v>165</v>
       </c>
       <c r="B27">
-        <v>0.00294</v>
+        <v>0.00293</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.006</v>
+        <v>0.00599</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -9718,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0.02055</v>
+        <v>0.02051</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -9729,16 +9732,16 @@
         <v>166</v>
       </c>
       <c r="B28">
-        <v>0.00276</v>
+        <v>0.00274</v>
       </c>
       <c r="C28">
-        <v>0.00348</v>
+        <v>0.00343</v>
       </c>
       <c r="D28">
         <v>0.00202</v>
       </c>
       <c r="E28">
-        <v>0.008189999999999999</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="F28">
         <v>0.00174</v>
@@ -9759,7 +9762,7 @@
         <v>0.00026</v>
       </c>
       <c r="L28">
-        <v>0.00259</v>
+        <v>0.0026</v>
       </c>
       <c r="M28">
         <v>0.02823</v>
@@ -9809,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.09862</v>
+        <v>0.09866999999999999</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -9856,7 +9859,7 @@
         <v>0.00568</v>
       </c>
       <c r="K30">
-        <v>0.00459</v>
+        <v>0.00457</v>
       </c>
       <c r="L30">
         <v>0.00078</v>
@@ -9906,13 +9909,13 @@
         <v>0.00417</v>
       </c>
       <c r="K31">
-        <v>0.00198</v>
+        <v>0.00195</v>
       </c>
       <c r="L31">
         <v>0.00134</v>
       </c>
       <c r="M31">
-        <v>0.1796</v>
+        <v>0.17961</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -9929,13 +9932,13 @@
         <v>59</v>
       </c>
       <c r="B32">
-        <v>0.00252</v>
+        <v>0.00251</v>
       </c>
       <c r="C32">
         <v>0.00019</v>
       </c>
       <c r="D32">
-        <v>0.00495</v>
+        <v>0.00492</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9956,10 +9959,10 @@
         <v>0.00514</v>
       </c>
       <c r="K32">
-        <v>0.00088</v>
+        <v>0.00087</v>
       </c>
       <c r="L32">
-        <v>0.0248</v>
+        <v>0.0244</v>
       </c>
       <c r="M32">
         <v>0.01201</v>
@@ -9971,7 +9974,7 @@
         <v>4E-05</v>
       </c>
       <c r="P32">
-        <v>0.00616</v>
+        <v>0.00615</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -10015,7 +10018,7 @@
         <v>0.03564</v>
       </c>
       <c r="N33">
-        <v>0.02306</v>
+        <v>0.02307</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -10106,10 +10109,10 @@
         <v>0.00601</v>
       </c>
       <c r="K35">
-        <v>0.00364</v>
+        <v>0.00363</v>
       </c>
       <c r="L35">
-        <v>0.00298</v>
+        <v>0.00299</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -10129,7 +10132,7 @@
         <v>173</v>
       </c>
       <c r="B36">
-        <v>0.00192</v>
+        <v>0.00193</v>
       </c>
       <c r="C36">
         <v>0.00211</v>
@@ -10144,7 +10147,7 @@
         <v>0.00388</v>
       </c>
       <c r="G36">
-        <v>0.00084</v>
+        <v>0.00085</v>
       </c>
       <c r="H36">
         <v>0.00552</v>
@@ -10197,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.00637</v>
+        <v>0.00635</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -10221,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0.00199</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -10303,10 +10306,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.00158</v>
+        <v>0.00159</v>
       </c>
       <c r="K39">
-        <v>0.00329</v>
+        <v>0.00328</v>
       </c>
       <c r="L39">
         <v>0.00195</v>
@@ -10359,7 +10362,7 @@
         <v>0.00126</v>
       </c>
       <c r="L40">
-        <v>0.00099</v>
+        <v>0.001</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -10409,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.01712</v>
+        <v>0.01713</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -10421,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0.00376</v>
+        <v>0.00375</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -10500,7 +10503,7 @@
         <v>0.00195</v>
       </c>
       <c r="I43">
-        <v>0.0023</v>
+        <v>0.00229</v>
       </c>
       <c r="J43">
         <v>0.00019</v>
@@ -10556,7 +10559,7 @@
         <v>0.00459</v>
       </c>
       <c r="K44">
-        <v>0.00653</v>
+        <v>0.00651</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -10609,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.01468</v>
+        <v>0.01469</v>
       </c>
       <c r="M45">
         <v>0.0007</v>
@@ -10729,13 +10732,13 @@
         <v>182</v>
       </c>
       <c r="B48">
-        <v>0.00074</v>
+        <v>0.00071</v>
       </c>
       <c r="C48">
         <v>0.00106</v>
       </c>
       <c r="D48">
-        <v>0.0004</v>
+        <v>0.00035</v>
       </c>
       <c r="E48">
         <v>0.00059</v>
@@ -10753,7 +10756,7 @@
         <v>0.00101</v>
       </c>
       <c r="J48">
-        <v>0.00167</v>
+        <v>0.00166</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -10771,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -10932,16 +10935,16 @@
         <v>0.00047</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="D52">
-        <v>0.00096</v>
+        <v>0.00072</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.00103</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -10950,16 +10953,16 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>0.00091</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>0.00133</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.00126</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.00519</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -10968,10 +10971,10 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -10982,16 +10985,16 @@
         <v>0.00047</v>
       </c>
       <c r="C53">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.00071</v>
+        <v>0.00096</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.00103</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -11000,16 +11003,16 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0.00091</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.00133</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0.00108</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.00519</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -11018,10 +11021,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.00329</v>
       </c>
       <c r="P53">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -11029,7 +11032,7 @@
         <v>188</v>
       </c>
       <c r="B54">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="C54">
         <v>0.00027</v>
@@ -11053,10 +11056,10 @@
         <v>0.00042</v>
       </c>
       <c r="J54">
-        <v>0.00125</v>
+        <v>0.00124</v>
       </c>
       <c r="K54">
-        <v>0.00232</v>
+        <v>0.00231</v>
       </c>
       <c r="L54">
         <v>0.00119</v>
@@ -11135,7 +11138,7 @@
         <v>0.00071</v>
       </c>
       <c r="D56">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E56">
         <v>0.00253</v>
@@ -11159,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.00134</v>
+        <v>0.00132</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -11221,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0.00127</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -11403,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.00037</v>
+        <v>0.00038</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -11418,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="P61">
         <v>0.00026</v>
@@ -11609,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0.009469999999999999</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -11712,7 +11715,7 @@
         <v>0.00037</v>
       </c>
       <c r="M67">
-        <v>0.01431</v>
+        <v>0.01424</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -11735,7 +11738,7 @@
         <v>0.00017</v>
       </c>
       <c r="D68">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -12621,7 +12624,7 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="P85">
-        <v>0.00046</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -12932,10 +12935,10 @@
         <v>6E-05</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="D92">
-        <v>0.00013</v>
+        <v>0.0001</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -12968,10 +12971,10 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>0.00043</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -13032,13 +13035,13 @@
         <v>6E-05</v>
       </c>
       <c r="C94">
-        <v>2E-05</v>
+        <v>0.00012</v>
       </c>
       <c r="D94">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -13050,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -13071,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>0.00029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -13082,28 +13085,28 @@
         <v>6E-05</v>
       </c>
       <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
         <v>0.00012</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
       <c r="E95">
-        <v>0.00025</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -13121,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -13132,10 +13135,10 @@
         <v>6E-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="D96">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -13144,16 +13147,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.00047</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -13171,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -13182,10 +13185,10 @@
         <v>6E-05</v>
       </c>
       <c r="C97">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13194,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -13218,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.00039</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -13668,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0.00026</v>
+        <v>0.00027</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -13741,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0.00082</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -13750,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>0.00037</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -13791,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.00082</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -13800,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0.00037</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -13853,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -14618,10 +14621,10 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P125">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -14668,10 +14671,10 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -14685,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>2E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -14718,10 +14721,10 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="P127">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -14782,11 +14785,11 @@
         <v>1E-05</v>
       </c>
       <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
         <v>2E-05</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
       <c r="E129">
         <v>0</v>
       </c>
@@ -14794,34 +14797,34 @@
         <v>0</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
         <v>6.999999999999999E-05</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -14838,13 +14841,13 @@
         <v>0</v>
       </c>
       <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
         <v>6.999999999999999E-05</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -14882,13 +14885,13 @@
         <v>1E-05</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="D131">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -14912,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.0008899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -14962,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -14971,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -14982,11 +14985,11 @@
         <v>1E-05</v>
       </c>
       <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
         <v>2E-05</v>
       </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
       <c r="E133">
         <v>0</v>
       </c>
@@ -14994,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -15021,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -15032,7 +15035,7 @@
         <v>1E-05</v>
       </c>
       <c r="C134">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -15044,10 +15047,10 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H134">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -15079,7 +15082,7 @@
         <v>265</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="C135">
         <v>1E-05</v>
@@ -15088,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -15097,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -15132,13 +15135,13 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D136">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -15159,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -15176,51 +15179,101 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>1E-05</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0.00015</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
         <v>2E-05</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
         <v>0</v>
       </c>
     </row>
@@ -15289,34 +15342,34 @@
         <v>55</v>
       </c>
       <c r="B2">
-        <v>0.71234</v>
+        <v>0.71232</v>
       </c>
       <c r="C2">
-        <v>0.54323</v>
+        <v>0.5431</v>
       </c>
       <c r="D2">
-        <v>0.9001400000000001</v>
+        <v>0.90015</v>
       </c>
       <c r="E2">
-        <v>0.91301</v>
+        <v>0.91296</v>
       </c>
       <c r="F2">
         <v>0.42834</v>
       </c>
       <c r="G2">
-        <v>0.33376</v>
+        <v>0.33374</v>
       </c>
       <c r="H2">
-        <v>0.71004</v>
+        <v>0.70974</v>
       </c>
       <c r="I2">
-        <v>0.31757</v>
+        <v>0.31754</v>
       </c>
       <c r="J2">
-        <v>0.92709</v>
+        <v>0.92705</v>
       </c>
       <c r="K2">
-        <v>0.88956</v>
+        <v>0.89063</v>
       </c>
       <c r="L2">
         <v>0.99739</v>
@@ -15325,48 +15378,48 @@
         <v>0.97504</v>
       </c>
       <c r="N2">
-        <v>0.9522699999999999</v>
+        <v>0.95225</v>
       </c>
       <c r="O2">
-        <v>0.81649</v>
+        <v>0.81651</v>
       </c>
       <c r="P2">
-        <v>0.93673</v>
+        <v>0.93665</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3">
-        <v>0.17416</v>
+        <v>0.17417</v>
       </c>
       <c r="C3">
-        <v>0.3305</v>
+        <v>0.33059</v>
       </c>
       <c r="D3">
         <v>0.00054</v>
       </c>
       <c r="E3">
-        <v>0.01306</v>
+        <v>0.01307</v>
       </c>
       <c r="F3">
-        <v>0.37309</v>
+        <v>0.37313</v>
       </c>
       <c r="G3">
-        <v>0.56382</v>
+        <v>0.5638300000000001</v>
       </c>
       <c r="H3">
-        <v>0.07181</v>
+        <v>0.07185</v>
       </c>
       <c r="I3">
-        <v>0.59177</v>
+        <v>0.5918099999999999</v>
       </c>
       <c r="J3">
         <v>0.00095</v>
       </c>
       <c r="K3">
-        <v>0.00194</v>
+        <v>0.00192</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -15386,28 +15439,28 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4">
-        <v>0.03464</v>
+        <v>0.03465</v>
       </c>
       <c r="C4">
-        <v>0.05315</v>
+        <v>0.05317</v>
       </c>
       <c r="D4">
-        <v>0.01408</v>
+        <v>0.01409</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.17123</v>
+        <v>0.17124</v>
       </c>
       <c r="G4">
         <v>0.01247</v>
       </c>
       <c r="H4">
-        <v>0.11064</v>
+        <v>0.11071</v>
       </c>
       <c r="I4">
         <v>0.05932</v>
@@ -15416,7 +15469,7 @@
         <v>0.01601</v>
       </c>
       <c r="K4">
-        <v>0.06163</v>
+        <v>0.06108</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -15425,33 +15478,33 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03207</v>
+        <v>0.03209</v>
       </c>
       <c r="O4">
         <v>0.00046</v>
       </c>
       <c r="P4">
-        <v>0.02262</v>
+        <v>0.02265</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5">
         <v>0.02379</v>
       </c>
       <c r="C5">
-        <v>0.0321</v>
+        <v>0.03211</v>
       </c>
       <c r="D5">
-        <v>0.01456</v>
+        <v>0.01455</v>
       </c>
       <c r="E5">
-        <v>0.06546</v>
+        <v>0.06549000000000001</v>
       </c>
       <c r="F5">
-        <v>0.0033</v>
+        <v>0.00328</v>
       </c>
       <c r="G5">
         <v>0.05073</v>
@@ -15466,7 +15519,7 @@
         <v>0.00212</v>
       </c>
       <c r="K5">
-        <v>0.0077</v>
+        <v>0.00762</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -15486,7 +15539,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6">
         <v>0.01023</v>
@@ -15501,22 +15554,22 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01585</v>
+        <v>0.01583</v>
       </c>
       <c r="G6">
-        <v>0.02695</v>
+        <v>0.02696</v>
       </c>
       <c r="H6">
-        <v>0.01085</v>
+        <v>0.01086</v>
       </c>
       <c r="I6">
-        <v>0.01356</v>
+        <v>0.01354</v>
       </c>
       <c r="J6">
         <v>0.00085</v>
       </c>
       <c r="K6">
-        <v>0.00557</v>
+        <v>0.00551</v>
       </c>
       <c r="L6">
         <v>0.00227</v>
@@ -15536,10 +15589,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7">
-        <v>0.00949</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="C7">
         <v>0.01548</v>
@@ -15548,16 +15601,16 @@
         <v>0.00283</v>
       </c>
       <c r="E7">
-        <v>0.00588</v>
+        <v>0.00589</v>
       </c>
       <c r="F7">
         <v>0.00328</v>
       </c>
       <c r="G7">
-        <v>0.009039999999999999</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="H7">
-        <v>0.05176</v>
+        <v>0.05179</v>
       </c>
       <c r="I7">
         <v>0.00603</v>
@@ -15581,12 +15634,12 @@
         <v>0.00085</v>
       </c>
       <c r="P7">
-        <v>0.00087</v>
+        <v>0.00086</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8">
         <v>0.00876</v>
@@ -15595,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0185</v>
+        <v>0.01849</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15636,7 +15689,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>0.00748</v>
@@ -15678,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05043</v>
+        <v>0.05042</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -15686,7 +15739,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>0.00603</v>
@@ -15713,10 +15766,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03475</v>
+        <v>0.03478</v>
       </c>
       <c r="K10">
-        <v>0.0247</v>
+        <v>0.02444</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -15725,24 +15778,24 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01565</v>
+        <v>0.01566</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.01207</v>
+        <v>0.01209</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B11">
         <v>0.0029</v>
       </c>
       <c r="C11">
-        <v>0.00277</v>
+        <v>0.00276</v>
       </c>
       <c r="D11">
         <v>0.00305</v>
@@ -15757,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01432</v>
+        <v>0.01429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -15766,7 +15819,7 @@
         <v>0.00565</v>
       </c>
       <c r="K11">
-        <v>0.00373</v>
+        <v>0.00369</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -15786,7 +15839,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>0.00283</v>
@@ -15831,12 +15884,12 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.01984</v>
+        <v>0.01986</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>0.00203</v>
@@ -15857,7 +15910,7 @@
         <v>0.00079</v>
       </c>
       <c r="H13">
-        <v>0.01451</v>
+        <v>0.01452</v>
       </c>
       <c r="I13">
         <v>0.00202</v>
@@ -15886,7 +15939,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>0.00127</v>
@@ -15936,7 +15989,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>0.00091</v>
@@ -15986,7 +16039,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B16">
         <v>0.00062</v>
@@ -16036,7 +16089,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B17">
         <v>0.00051</v>
@@ -16081,39 +16134,39 @@
         <v>0.00142</v>
       </c>
       <c r="P17">
-        <v>0.00207</v>
+        <v>0.00208</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B18">
         <v>0.00041</v>
       </c>
       <c r="C18">
-        <v>0.00063</v>
+        <v>0.00075</v>
       </c>
       <c r="D18">
-        <v>0.00016</v>
+        <v>4E-05</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00067</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.00069</v>
+        <v>0.00388</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.00029</v>
+        <v>0.00018</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -16128,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -16136,34 +16189,34 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19">
-        <v>0.0004</v>
+        <v>0.00041</v>
       </c>
       <c r="C19">
-        <v>0.00072</v>
+        <v>0.00063</v>
       </c>
       <c r="D19">
-        <v>4E-05</v>
+        <v>0.00016</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.00067</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="H19">
-        <v>0.00373</v>
+        <v>0.00069</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.00018</v>
+        <v>0.00029</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -16178,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.00031</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -16186,7 +16239,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20">
         <v>0.00038</v>
@@ -16236,7 +16289,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B21">
         <v>0.00017</v>
@@ -16286,7 +16339,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22">
         <v>0.00014</v>
@@ -16316,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.00517</v>
+        <v>0.00511</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -16336,7 +16389,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B23">
         <v>0.00013</v>
@@ -16386,7 +16439,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B24">
         <v>8.000000000000001E-05</v>
@@ -16395,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00017</v>
+        <v>0.00018</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -16428,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.00055</v>
+        <v>0.00056</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -16436,7 +16489,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B25">
         <v>8.000000000000001E-05</v>
@@ -16486,7 +16539,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26">
         <v>6.999999999999999E-05</v>
@@ -16536,7 +16589,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27">
         <v>4E-05</v>
@@ -16586,7 +16639,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28">
         <v>4E-05</v>
@@ -16607,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.0002</v>
+        <v>0.00021</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -16636,7 +16689,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29">
         <v>2E-05</v>
@@ -16686,7 +16739,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30">
         <v>2E-05</v>
@@ -16736,7 +16789,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31">
         <v>2E-05</v>
@@ -16786,7 +16839,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32">
         <v>2E-05</v>
@@ -16836,7 +16889,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33">
         <v>1E-05</v>
